--- a/medicine/Psychotrope/Mylokaphephilie/Mylokaphephilie.xlsx
+++ b/medicine/Psychotrope/Mylokaphephilie/Mylokaphephilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mylokaphéphilie est l'art de collectionner les moulins à café. Le collectionneur est un mylokaphéphile.
 </t>
@@ -511,12 +523,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Mylokaphéphile » est composé exclusivement de racines grecques :
-μύλη[1] (grec ancien) : mulè = meule ou moulin ;
-καφές[2] (grec moderne) : kafés = café ;
-φιλία[3] (grec ancien) : philia = qui aime (amitié).
+μύλη (grec ancien) : mulè = meule ou moulin ;
+καφές (grec moderne) : kafés = café ;
+φιλία (grec ancien) : philia = qui aime (amitié).
 « Celui qui aime les moulins à café. »
 </t>
         </is>
@@ -546,15 +560,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 2011 le collectionneur de moulin à café était communément appelé « Molafabophile »[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 2011 le collectionneur de moulin à café était communément appelé « Molafabophile »
 Ce terme provenant des racines suivantes :
-Mola[5] : latin = moudre ;
-'Faba[6]= Fabo : latin = fève
+Mola : latin = moudre ;
+'Faba= Fabo : latin = fève
 phile : grec = qui aime ;
-« Celui qui aime les objets pour moudre les fèves » ; la fève est un légume[7] alors que le grain de café et une drupe ou cerise de café[8].
-Le dernier président en date de l'Association internationale des collectionneurs de moulins à café, Thierry Prieux, décide de revoir ce terme, en accord avec ses adhérents et l'Académie Française[9].
+« Celui qui aime les objets pour moudre les fèves » ; la fève est un légume alors que le grain de café et une drupe ou cerise de café.
+Le dernier président en date de l'Association internationale des collectionneurs de moulins à café, Thierry Prieux, décide de revoir ce terme, en accord avec ses adhérents et l'Académie Française.
 Le fait de  collectionner des fèves se nomme fabophilie.
 Différentes catégories de collections sont possibles, comme par fabricant, moulins miniatures dit de dinette ou de poupée, moulins à images (moulins ayant des décors sur les quatre faces et souvent sur celluloïd), moulins à fixation murale, moulins très anciens (de fabrication non industrielle, XVII ou XVIIIe siècle), etc.
 </t>
@@ -585,7 +601,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Moulins à café en fer du XVIIIe siècle.
